--- a/Results and scripts_mp/validation 17.6/validation results.xlsx
+++ b/Results and scripts_mp/validation 17.6/validation results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="40">
   <si>
     <t>10 sect</t>
   </si>
@@ -91,6 +91,51 @@
   </si>
   <si>
     <t>sec/h</t>
+  </si>
+  <si>
+    <t>17062013_validation_10_sect</t>
+  </si>
+  <si>
+    <t>run_20130617T155245</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>17062013_validation_20_sect</t>
+  </si>
+  <si>
+    <t>17062013_validation_30_sect</t>
+  </si>
+  <si>
+    <t>17062013_validation_40_sect</t>
+  </si>
+  <si>
+    <t>17062013_validation_60_sect</t>
+  </si>
+  <si>
+    <t>17062013_validation_90_sect</t>
+  </si>
+  <si>
+    <t>run_20130617T155335</t>
+  </si>
+  <si>
+    <t>run_20130617T155553</t>
+  </si>
+  <si>
+    <t>run_20130617T160034</t>
+  </si>
+  <si>
+    <t>run_20130617T162006</t>
+  </si>
+  <si>
+    <t>run_20130617T174753</t>
+  </si>
+  <si>
+    <t>Sample</t>
   </si>
 </sst>
 </file>
@@ -100,8 +145,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -129,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +194,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -261,11 +320,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112158592"/>
-        <c:axId val="112160128"/>
+        <c:axId val="119564160"/>
+        <c:axId val="119565696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112158592"/>
+        <c:axId val="119564160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -275,12 +334,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112160128"/>
+        <c:crossAx val="119565696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112160128"/>
+        <c:axId val="119565696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -291,14 +350,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112158592"/>
+        <c:crossAx val="119564160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -637,13 +695,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
@@ -659,15 +718,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>18</v>
@@ -907,9 +978,27 @@
         <v>5.9537026034811459E-2</v>
       </c>
     </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>23</v>
@@ -1140,9 +1229,27 @@
         <v>0.24691605222131993</v>
       </c>
     </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -1367,9 +1474,27 @@
         <v>0.70489735999235892</v>
       </c>
     </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -1594,9 +1719,27 @@
         <v>1.4452691403179849</v>
       </c>
     </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -1821,9 +1964,27 @@
         <v>6.0889407083692557</v>
       </c>
     </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
